--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/BarterDataFiles/Diginet_ValidFile1.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/BarterDataFiles/Diginet_ValidFile1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achyzh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\achyzh\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\BarterDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6195ED87-D166-4B33-9157-7703FE76B156}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3647E64-0FE2-4F27-BCB1-C7701C826CFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,12 +65,6 @@
     <t>HH Imps (000)</t>
   </si>
   <si>
-    <t>P 18-49 Rtg</t>
-  </si>
-  <si>
-    <t>P 18-49 Imps (000)</t>
-  </si>
-  <si>
     <t>Diginet Header</t>
   </si>
   <si>
@@ -78,6 +72,12 @@
   </si>
   <si>
     <t>COZI</t>
+  </si>
+  <si>
+    <t>M18-20 Rtg</t>
+  </si>
+  <si>
+    <t>M18-20 Imps (000)</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -998,7 +998,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -1066,7 +1066,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>7</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="11" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>9</v>
@@ -1325,10 +1325,10 @@
         <v>11</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="5"/>
